--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang4/01.TraBH/TBH_240424_NgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang4/01.TraBH/TBH_240424_NgocHoan.xlsx
@@ -99,9 +99,6 @@
     <t>Thiết bị hoạt động bình thường</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý Ngọc Hoàn</t>
-  </si>
-  <si>
     <t>TG102LE-4G</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
   </si>
 </sst>
 </file>
@@ -663,6 +663,99 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -679,99 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1154,78 +1154,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="47" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="50" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="53" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1233,12 +1233,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -1246,12 +1246,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1262,12 +1262,12 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1318,131 +1318,131 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="F12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="66" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>3</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>4</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>5</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
-        <v>2</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="66" t="s">
+      <c r="G16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
-        <v>3</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
-        <v>4</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>5</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,26 +1475,26 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -1539,19 +1539,19 @@
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -1565,12 +1565,19 @@
       <c r="I26" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
     </row>
     <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
@@ -1580,16 +1587,9 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>